--- a/CPDP-SLR/Extra/DATASETS.xlsx
+++ b/CPDP-SLR/Extra/DATASETS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sehossei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSP\CPDP-SLR\CPDP-SLR\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="338">
   <si>
     <t>Application domain</t>
   </si>
@@ -962,9 +962,6 @@
     <t>S42</t>
   </si>
   <si>
-    <t>S45</t>
-  </si>
-  <si>
     <t>INDUSTRIAL,NASA</t>
   </si>
   <si>
@@ -1038,6 +1035,12 @@
   </si>
   <si>
     <t>Enterprise Service Bus</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>S44</t>
   </si>
 </sst>
 </file>
@@ -1320,91 +1323,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,26 +1409,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1545,6 +1448,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,14 +1831,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="J330" sqref="J330"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443:C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="83" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="83" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="54" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
@@ -1843,18 +1846,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1865,102 +1868,102 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1971,40 +1974,40 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2015,122 +2018,122 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="92" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="93"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="93"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="93"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="93"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="93"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="36"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="93"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="93"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="93"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="36"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="93"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="98"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -2141,138 +2144,138 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="97" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="39"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="98"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="39"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="98"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="39"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="98"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="96"/>
+      <c r="D42" s="98"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="96"/>
+      <c r="D43" s="98"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="96"/>
+      <c r="D44" s="98"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="96"/>
+      <c r="D45" s="98"/>
+    </row>
+    <row r="46" spans="1:4" ht="28.8">
+      <c r="A46" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="B42" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="39"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="39"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="39"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="63" t="s">
+      <c r="B46" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="96"/>
+      <c r="D46" s="98"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="39"/>
-    </row>
-    <row r="46" spans="1:4" ht="28.8">
-      <c r="A46" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B46" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="39"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="70" t="s">
+      <c r="B47" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="96"/>
+      <c r="D47" s="98"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="39"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="39"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="98"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="39"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="98"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="97"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -2283,122 +2286,122 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B56" s="62" t="s">
+      <c r="A56" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="37"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="94"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="37"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="94"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="37"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="94"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="37"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="94"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="37"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="94"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="37"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="94"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="B63" s="62" t="s">
+      <c r="A63" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="37"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="94"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="37"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="94"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="37"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="94"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="98"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="12" t="s">
@@ -2409,8 +2412,8 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68" t="s">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -2421,10 +2424,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="55.2">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C72" s="17"/>
@@ -2433,18 +2436,18 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="66" t="s">
+      <c r="A77" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="98"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -2455,126 +2458,126 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B79" s="68" t="s">
+      <c r="A79" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="45" t="s">
+      <c r="D79" s="85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="46"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="86"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="62" t="s">
+      <c r="A81" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="68" t="s">
+      <c r="B81" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="46"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="86"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="46"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="86"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B83" s="68" t="s">
+      <c r="A83" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="46"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="86"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="46"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="86"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="47"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="87"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="B86" s="68" t="s">
+      <c r="A86" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C86" s="28"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="63" t="s">
+      <c r="A87" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="68" t="s">
+      <c r="B87" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="48" t="s">
+      <c r="C87" s="96"/>
+      <c r="D87" s="99" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="61" t="s">
+      <c r="A88" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="68" t="s">
+      <c r="B88" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="49"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="100"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="98"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="67" t="s">
+      <c r="A94" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="67" t="s">
+      <c r="B94" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="12" t="s">
@@ -2585,127 +2588,127 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="60" t="s">
+      <c r="A95" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="B96" s="68" t="s">
+      <c r="B96" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="46"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="86"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="72" t="s">
+      <c r="A97" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="B97" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="96"/>
+      <c r="D97" s="86"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="96"/>
+      <c r="D98" s="86"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="96"/>
+      <c r="D99" s="86"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="B97" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="46"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="46"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B99" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="46"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="B100" s="68" t="s">
+      <c r="B100" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="46"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="86"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="57" t="s">
+      <c r="A101" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="68" t="s">
+      <c r="B101" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="47"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="87"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="74" t="s">
+      <c r="A102" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="68" t="s">
+      <c r="B102" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C102" s="28"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="72" t="s">
+      <c r="A103" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="48" t="s">
+      <c r="C103" s="96"/>
+      <c r="D103" s="99" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="B104" s="68" t="s">
+      <c r="A104" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="49"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="100"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="75" t="s">
+      <c r="A108" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="79"/>
+      <c r="B108" s="50"/>
       <c r="C108" s="18"/>
       <c r="D108" s="18"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="76" t="s">
+      <c r="A109" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="76" t="s">
+      <c r="B109" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -2717,432 +2720,432 @@
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="77" t="s">
+      <c r="A110" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="D110" s="103" t="s">
         <v>74</v>
       </c>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="77" t="s">
+      <c r="A111" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="103"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="77" t="s">
+      <c r="A112" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B112" s="77" t="s">
+      <c r="B112" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
+      <c r="C112" s="103"/>
+      <c r="D112" s="103"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="77" t="s">
+      <c r="A113" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="103"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
+      <c r="C114" s="103"/>
+      <c r="D114" s="103"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" ht="28.8">
-      <c r="A115" s="77" t="s">
+      <c r="A115" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="103"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
+      <c r="C116" s="103"/>
+      <c r="D116" s="103"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="77" t="s">
+      <c r="A117" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35" t="s">
+      <c r="C117" s="103"/>
+      <c r="D117" s="103" t="s">
         <v>85</v>
       </c>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="77" t="s">
+      <c r="A118" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
+      <c r="C118" s="103"/>
+      <c r="D118" s="103"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="77" t="s">
+      <c r="A119" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="B119" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="103"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="57" t="s">
+      <c r="A120" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B120" s="57" t="s">
+      <c r="B120" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35" t="s">
+      <c r="C120" s="103"/>
+      <c r="D120" s="103" t="s">
         <v>90</v>
       </c>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B121" s="57" t="s">
+      <c r="B121" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="103"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="78" t="s">
+      <c r="A122" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B122" s="57" t="s">
+      <c r="B122" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="103"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="57" t="s">
+      <c r="A123" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B123" s="57" t="s">
+      <c r="B123" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="103"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="57" t="s">
+      <c r="A124" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="57" t="s">
+      <c r="B124" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
+      <c r="C124" s="103"/>
+      <c r="D124" s="103"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="57" t="s">
+      <c r="B125" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="103"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="57" t="s">
+      <c r="A126" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B126" s="57" t="s">
+      <c r="B126" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
+      <c r="C126" s="103"/>
+      <c r="D126" s="103"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" ht="27.6">
-      <c r="A127" s="57" t="s">
+      <c r="A127" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B127" s="57" t="s">
+      <c r="B127" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="103"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="57" t="s">
+      <c r="A128" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B128" s="57" t="s">
+      <c r="B128" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
+      <c r="C128" s="103"/>
+      <c r="D128" s="103"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B129" s="57" t="s">
+      <c r="B129" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
+      <c r="C129" s="103"/>
+      <c r="D129" s="103"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="57" t="s">
+      <c r="A130" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="57" t="s">
+      <c r="B130" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C130" s="35"/>
-      <c r="D130" s="30" t="s">
+      <c r="C130" s="103"/>
+      <c r="D130" s="91" t="s">
         <v>107</v>
       </c>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="57" t="s">
+      <c r="A131" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="57" t="s">
+      <c r="B131" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C131" s="35"/>
-      <c r="D131" s="30"/>
+      <c r="C131" s="103"/>
+      <c r="D131" s="91"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B132" s="57" t="s">
+      <c r="B132" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C132" s="35"/>
+      <c r="C132" s="103"/>
       <c r="D132" s="18" t="s">
         <v>90</v>
       </c>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" ht="27.6">
-      <c r="A133" s="57" t="s">
+      <c r="A133" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B133" s="57" t="s">
+      <c r="B133" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C133" s="35"/>
+      <c r="C133" s="103"/>
       <c r="D133" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="57" t="s">
+      <c r="B134" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C134" s="35"/>
-      <c r="D134" s="30" t="s">
+      <c r="C134" s="103"/>
+      <c r="D134" s="91" t="s">
         <v>107</v>
       </c>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="79" t="s">
+      <c r="A135" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B135" s="77" t="s">
+      <c r="B135" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="30"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="91"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="79" t="s">
+      <c r="A136" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B136" s="77" t="s">
+      <c r="B136" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C136" s="35"/>
-      <c r="D136" s="30"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="91"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="79" t="s">
+      <c r="A137" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B137" s="77" t="s">
+      <c r="B137" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C137" s="35"/>
-      <c r="D137" s="30"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="91"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="79" t="s">
+      <c r="A138" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C138" s="35"/>
-      <c r="D138" s="30"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="91"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="79" t="s">
+      <c r="A139" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="77" t="s">
+      <c r="B139" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C139" s="35"/>
-      <c r="D139" s="30"/>
+      <c r="C139" s="103"/>
+      <c r="D139" s="91"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="79" t="s">
+      <c r="A140" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B140" s="77" t="s">
+      <c r="B140" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C140" s="35"/>
-      <c r="D140" s="30"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="91"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="79" t="s">
+      <c r="A141" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B141" s="77" t="s">
+      <c r="B141" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="35"/>
-      <c r="D141" s="30"/>
+      <c r="C141" s="103"/>
+      <c r="D141" s="91"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="79" t="s">
+      <c r="A142" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B142" s="77" t="s">
+      <c r="B142" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C142" s="35"/>
-      <c r="D142" s="30"/>
+      <c r="C142" s="103"/>
+      <c r="D142" s="91"/>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="77" t="s">
+      <c r="A143" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B143" s="77" t="s">
+      <c r="B143" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C143" s="35"/>
-      <c r="D143" s="31" t="s">
+      <c r="C143" s="103"/>
+      <c r="D143" s="101" t="s">
         <v>90</v>
       </c>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="77" t="s">
+      <c r="A144" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B144" s="77" t="s">
+      <c r="B144" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="32"/>
+      <c r="C144" s="103"/>
+      <c r="D144" s="102"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="77" t="s">
+      <c r="A145" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B145" s="77" t="s">
+      <c r="B145" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C145" s="35"/>
-      <c r="D145" s="32"/>
+      <c r="C145" s="103"/>
+      <c r="D145" s="102"/>
       <c r="E145" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="80" t="s">
+      <c r="A152" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B152" s="99"/>
+      <c r="B152" s="65"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="81" t="s">
+      <c r="A153" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="81" t="s">
+      <c r="B153" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C153" s="21" t="s">
@@ -3153,88 +3156,88 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="77" t="s">
+      <c r="A154" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B154" s="63" t="s">
+      <c r="B154" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C154" s="33" t="s">
+      <c r="C154" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D154" s="34" t="s">
+      <c r="D154" s="77" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="77" t="s">
+      <c r="A155" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B155" s="63" t="s">
+      <c r="B155" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="77"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="77" t="s">
+      <c r="A156" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B156" s="63" t="s">
+      <c r="B156" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="33"/>
-      <c r="D156" s="34"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="77"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="60"/>
-      <c r="B157" s="63" t="s">
+      <c r="A157" s="31"/>
+      <c r="B157" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C157" s="33"/>
-      <c r="D157" s="34"/>
+      <c r="C157" s="92"/>
+      <c r="D157" s="77"/>
     </row>
     <row r="158" spans="1:5" ht="28.8">
-      <c r="A158" s="70" t="s">
+      <c r="A158" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B158" s="72" t="s">
+      <c r="B158" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="33"/>
-      <c r="D158" s="34"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="77"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="63" t="s">
+      <c r="A159" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B159" s="72" t="s">
+      <c r="B159" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="33"/>
-      <c r="D159" s="34"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="77"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="60"/>
-      <c r="B160" s="72" t="s">
+      <c r="A160" s="31"/>
+      <c r="B160" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C160" s="33"/>
-      <c r="D160" s="34"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="77"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="75" t="s">
+      <c r="A164" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="100"/>
+      <c r="B164" s="66"/>
       <c r="C164" s="24"/>
       <c r="D164" s="24"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="82" t="s">
+      <c r="A165" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="82" t="s">
+      <c r="B165" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C165" s="25" t="s">
@@ -3245,70 +3248,70 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="70" t="s">
+      <c r="A166" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B166" s="70" t="s">
+      <c r="B166" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D166" s="27" t="s">
+      <c r="D166" s="78" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="70" t="s">
+      <c r="A167" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B167" s="70" t="s">
+      <c r="B167" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
+      <c r="C167" s="78"/>
+      <c r="D167" s="78"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="70" t="s">
+      <c r="A168" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B168" s="70" t="s">
+      <c r="B168" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
+      <c r="C168" s="78"/>
+      <c r="D168" s="78"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="70" t="s">
+      <c r="A169" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B169" s="70" t="s">
+      <c r="B169" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C169" s="27"/>
-      <c r="D169" s="27"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="78"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="70" t="s">
+      <c r="A170" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B170" s="70" t="s">
+      <c r="B170" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C170" s="27"/>
-      <c r="D170" s="27"/>
+      <c r="C170" s="78"/>
+      <c r="D170" s="78"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="75" t="s">
+      <c r="A174" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B174" s="100"/>
+      <c r="B174" s="66"/>
       <c r="C174" s="24"/>
       <c r="D174" s="24"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="82"/>
-      <c r="B175" s="82" t="s">
+      <c r="A175" s="53"/>
+      <c r="B175" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C175" s="25" t="s">
@@ -3319,136 +3322,136 @@
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="63" t="s">
+      <c r="A176" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B176" s="70" t="s">
+      <c r="B176" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D176" s="27" t="s">
+      <c r="D176" s="78" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="77" t="s">
+      <c r="A177" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B177" s="70" t="s">
+      <c r="B177" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
+      <c r="C177" s="78"/>
+      <c r="D177" s="78"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="70" t="s">
+      <c r="A178" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B178" s="70" t="s">
+      <c r="B178" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C178" s="27"/>
-      <c r="D178" s="27"/>
+      <c r="C178" s="78"/>
+      <c r="D178" s="78"/>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="70"/>
-      <c r="B179" s="70" t="s">
+      <c r="A179" s="41"/>
+      <c r="B179" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C179" s="27"/>
-      <c r="D179" s="27"/>
+      <c r="C179" s="78"/>
+      <c r="D179" s="78"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="77" t="s">
+      <c r="A180" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B180" s="70" t="s">
+      <c r="B180" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
+      <c r="C180" s="78"/>
+      <c r="D180" s="78"/>
     </row>
     <row r="181" spans="1:4" ht="28.8">
-      <c r="A181" s="70" t="s">
+      <c r="A181" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B181" s="70" t="s">
+      <c r="B181" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C181" s="27"/>
-      <c r="D181" s="27"/>
+      <c r="C181" s="78"/>
+      <c r="D181" s="78"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="70" t="s">
+      <c r="A182" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B182" s="70" t="s">
+      <c r="B182" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C182" s="27"/>
-      <c r="D182" s="27"/>
+      <c r="C182" s="78"/>
+      <c r="D182" s="78"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="70"/>
-      <c r="B183" s="70" t="s">
+      <c r="A183" s="41"/>
+      <c r="B183" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
+      <c r="C183" s="78"/>
+      <c r="D183" s="78"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="70"/>
-      <c r="B184" s="70" t="s">
+      <c r="A184" s="41"/>
+      <c r="B184" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
+      <c r="C184" s="78"/>
+      <c r="D184" s="78"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="70" t="s">
+      <c r="A185" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C185" s="78"/>
+      <c r="D185" s="78"/>
+    </row>
+    <row r="186" spans="1:4" ht="28.8">
+      <c r="A186" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="B185" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
-    </row>
-    <row r="186" spans="1:4" ht="28.8">
-      <c r="A186" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B186" s="56" t="s">
+      <c r="B186" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
+      <c r="C186" s="78"/>
+      <c r="D186" s="78"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="70" t="s">
+      <c r="A187" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B187" s="56" t="s">
+      <c r="B187" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
+      <c r="C187" s="78"/>
+      <c r="D187" s="78"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="80" t="s">
+      <c r="A195" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="B195" s="99"/>
+      <c r="B195" s="65"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="81" t="s">
+      <c r="A196" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="81" t="s">
+      <c r="B196" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C196" s="21" t="s">
@@ -3459,174 +3462,174 @@
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B197" s="88" t="s">
+      <c r="A197" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B197" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="C197" s="34" t="s">
+      <c r="C197" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="34" t="s">
+      <c r="D197" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="63" t="s">
+      <c r="A198" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B198" s="63" t="s">
+      <c r="B198" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C198" s="34"/>
-      <c r="D198" s="40"/>
+      <c r="C198" s="77"/>
+      <c r="D198" s="80"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="60" t="s">
+      <c r="A199" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B199" s="88" t="s">
+      <c r="B199" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C199" s="34"/>
-      <c r="D199" s="40"/>
+      <c r="C199" s="77"/>
+      <c r="D199" s="80"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="57" t="s">
+      <c r="A200" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B200" s="63" t="s">
+      <c r="B200" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C200" s="34"/>
-      <c r="D200" s="40"/>
+      <c r="C200" s="77"/>
+      <c r="D200" s="80"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="63" t="s">
+      <c r="A201" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B201" s="63" t="s">
+      <c r="B201" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C201" s="34"/>
-      <c r="D201" s="40"/>
+      <c r="C201" s="77"/>
+      <c r="D201" s="80"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="57" t="s">
+      <c r="A202" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B202" s="63" t="s">
+      <c r="B202" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C202" s="34"/>
-      <c r="D202" s="40"/>
+      <c r="C202" s="77"/>
+      <c r="D202" s="80"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="63" t="s">
+      <c r="A203" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B203" s="63" t="s">
+      <c r="B203" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C203" s="34"/>
-      <c r="D203" s="40"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="80"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="63"/>
-      <c r="B204" s="63" t="s">
+      <c r="A204" s="34"/>
+      <c r="B204" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C204" s="34"/>
-      <c r="D204" s="40"/>
+      <c r="C204" s="77"/>
+      <c r="D204" s="80"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="63" t="s">
+      <c r="A205" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B205" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C205" s="77"/>
+      <c r="D205" s="80"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C206" s="77"/>
+      <c r="D206" s="80"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B207" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C207" s="77"/>
+      <c r="D207" s="80"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B205" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C205" s="34"/>
-      <c r="D205" s="40"/>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B206" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C206" s="34"/>
-      <c r="D206" s="40"/>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B207" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C207" s="34"/>
-      <c r="D207" s="40"/>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="63" t="s">
+      <c r="B208" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C208" s="77"/>
+      <c r="D208" s="77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B209" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C209" s="77"/>
+      <c r="D209" s="80"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B210" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C210" s="77"/>
+      <c r="D210" s="80"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="B208" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="B209" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C209" s="34"/>
-      <c r="D209" s="40"/>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="B210" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C210" s="34"/>
-      <c r="D210" s="40"/>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="B211" s="63" t="s">
+      <c r="B211" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C211" s="34"/>
+      <c r="C211" s="77"/>
       <c r="D211" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="80" t="s">
+      <c r="A216" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="B216" s="99"/>
+      <c r="B216" s="65"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="81" t="s">
+      <c r="A217" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B217" s="81" t="s">
+      <c r="B217" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C217" s="21" t="s">
@@ -3637,111 +3640,111 @@
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="63" t="s">
+      <c r="A218" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B218" s="63" t="s">
+      <c r="B218" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C218" s="34" t="s">
+      <c r="C218" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="D218" s="77" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="63" t="s">
+      <c r="A219" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="63" t="s">
+      <c r="B219" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
+      <c r="C219" s="77"/>
+      <c r="D219" s="77"/>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="63" t="s">
+      <c r="A220" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B220" s="88" t="s">
+      <c r="B220" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="63" t="s">
+      <c r="A221" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B221" s="63" t="s">
+      <c r="B221" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
+      <c r="C221" s="77"/>
+      <c r="D221" s="77"/>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="63" t="s">
+      <c r="A222" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B222" s="63" t="s">
+      <c r="B222" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
+      <c r="C222" s="77"/>
+      <c r="D222" s="77"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="63" t="s">
+      <c r="A223" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B223" s="63" t="s">
+      <c r="B223" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
+      <c r="C223" s="77"/>
+      <c r="D223" s="77"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="63" t="s">
+      <c r="A224" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B224" s="63" t="s">
+      <c r="B224" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C224" s="34"/>
-      <c r="D224" s="34" t="s">
+      <c r="C224" s="77"/>
+      <c r="D224" s="77" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="63" t="s">
+      <c r="A225" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B225" s="63" t="s">
+      <c r="B225" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C225" s="34"/>
-      <c r="D225" s="34"/>
+      <c r="C225" s="77"/>
+      <c r="D225" s="77"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="63" t="s">
+      <c r="A226" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B226" s="63" t="s">
+      <c r="B226" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C226" s="34"/>
+      <c r="C226" s="77"/>
       <c r="D226" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="63" t="s">
+      <c r="A227" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B227" s="63" t="s">
+      <c r="B227" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C227" s="34"/>
+      <c r="C227" s="77"/>
       <c r="D227" s="6" t="s">
         <v>171</v>
       </c>
@@ -3759,18 +3762,18 @@
       <c r="D230" s="3"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="80" t="s">
+      <c r="A232" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B232" s="99"/>
+      <c r="B232" s="65"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="81" t="s">
+      <c r="A233" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B233" s="81" t="s">
+      <c r="B233" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C233" s="22" t="s">
@@ -3781,13 +3784,13 @@
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B234" s="63" t="s">
+      <c r="A234" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B234" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C234" s="27" t="s">
+      <c r="C234" s="78" t="s">
         <v>6</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -3795,156 +3798,156 @@
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="63" t="s">
+      <c r="A235" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B235" s="63" t="s">
+      <c r="B235" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C235" s="41"/>
+      <c r="C235" s="84"/>
       <c r="D235" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="63" t="s">
+      <c r="A236" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B236" s="63" t="s">
+      <c r="B236" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C236" s="41"/>
-      <c r="D236" s="40" t="s">
+      <c r="C236" s="84"/>
+      <c r="D236" s="80" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="63" t="s">
+      <c r="A237" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B237" s="63" t="s">
+      <c r="B237" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C237" s="41"/>
-      <c r="D237" s="40"/>
+      <c r="C237" s="84"/>
+      <c r="D237" s="80"/>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="84" t="s">
+      <c r="A238" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B238" s="63" t="s">
+      <c r="B238" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C238" s="41"/>
-      <c r="D238" s="40"/>
+      <c r="C238" s="84"/>
+      <c r="D238" s="80"/>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="B239" s="63" t="s">
+      <c r="A239" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B239" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C239" s="41"/>
-      <c r="D239" s="40"/>
+      <c r="C239" s="84"/>
+      <c r="D239" s="80"/>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="63" t="s">
+      <c r="A240" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B240" s="63" t="s">
+      <c r="B240" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C240" s="41"/>
-      <c r="D240" s="40"/>
+      <c r="C240" s="84"/>
+      <c r="D240" s="80"/>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="57" t="s">
+      <c r="A241" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B241" s="63" t="s">
+      <c r="B241" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C241" s="41"/>
-      <c r="D241" s="40"/>
+      <c r="C241" s="84"/>
+      <c r="D241" s="80"/>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="63" t="s">
+      <c r="A242" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B242" s="63" t="s">
+      <c r="B242" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C242" s="41"/>
+      <c r="C242" s="84"/>
       <c r="D242" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="63" t="s">
+      <c r="A243" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B243" s="63" t="s">
+      <c r="B243" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C243" s="41"/>
-      <c r="D243" s="40" t="s">
+      <c r="C243" s="84"/>
+      <c r="D243" s="80" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="65" t="s">
+      <c r="A244" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B244" s="63" t="s">
+      <c r="B244" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C244" s="41"/>
-      <c r="D244" s="40"/>
+      <c r="C244" s="84"/>
+      <c r="D244" s="80"/>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="B245" s="63" t="s">
+      <c r="A245" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B245" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C245" s="41"/>
-      <c r="D245" s="40"/>
+      <c r="C245" s="84"/>
+      <c r="D245" s="80"/>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="63" t="s">
+      <c r="A246" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B246" s="63" t="s">
+      <c r="B246" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C246" s="41"/>
-      <c r="D246" s="40"/>
+      <c r="C246" s="84"/>
+      <c r="D246" s="80"/>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="56" t="s">
+      <c r="A247" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B247" s="63" t="s">
+      <c r="B247" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C247" s="41"/>
-      <c r="D247" s="40"/>
+      <c r="C247" s="84"/>
+      <c r="D247" s="80"/>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="80" t="s">
+      <c r="A252" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="B252" s="99"/>
+      <c r="B252" s="65"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="81" t="s">
+      <c r="A253" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B253" s="81" t="s">
+      <c r="B253" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C253" s="21" t="s">
@@ -3955,104 +3958,104 @@
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="63" t="s">
+      <c r="A254" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B254" s="63" t="s">
+      <c r="B254" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C254" s="34" t="s">
+      <c r="C254" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="D254" s="34" t="s">
+      <c r="D254" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="63" t="s">
+      <c r="A255" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B255" s="63" t="s">
+      <c r="B255" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
+      <c r="C255" s="77"/>
+      <c r="D255" s="77"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="63" t="s">
+      <c r="A256" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B256" s="63" t="s">
+      <c r="B256" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C256" s="34"/>
-      <c r="D256" s="34"/>
+      <c r="C256" s="77"/>
+      <c r="D256" s="77"/>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="63" t="s">
+      <c r="A257" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B257" s="63" t="s">
+      <c r="B257" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="C257" s="34" t="s">
+      <c r="C257" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D257" s="34"/>
+      <c r="D257" s="77"/>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="63" t="s">
+      <c r="A258" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B258" s="63" t="s">
+      <c r="B258" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C258" s="34"/>
-      <c r="D258" s="34"/>
+      <c r="C258" s="77"/>
+      <c r="D258" s="77"/>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="63" t="s">
+      <c r="A259" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B259" s="63" t="s">
+      <c r="B259" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C259" s="34"/>
-      <c r="D259" s="34"/>
+      <c r="C259" s="77"/>
+      <c r="D259" s="77"/>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="63" t="s">
+      <c r="A260" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B260" s="63" t="s">
+      <c r="B260" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C260" s="34"/>
-      <c r="D260" s="34"/>
+      <c r="C260" s="77"/>
+      <c r="D260" s="77"/>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="63" t="s">
+      <c r="A261" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B261" s="63" t="s">
+      <c r="B261" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C261" s="34"/>
-      <c r="D261" s="34"/>
+      <c r="C261" s="77"/>
+      <c r="D261" s="77"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="80" t="s">
+      <c r="A266" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B266" s="99"/>
+      <c r="B266" s="65"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="81" t="s">
+      <c r="A267" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B267" s="81" t="s">
+      <c r="B267" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C267" s="21" t="s">
@@ -4063,120 +4066,120 @@
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="63" t="s">
+      <c r="A268" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B268" s="72" t="s">
+      <c r="B268" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C268" s="27" t="s">
+      <c r="C268" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D268" s="27" t="s">
+      <c r="D268" s="78" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="72" t="s">
+      <c r="A269" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B269" s="72" t="s">
+      <c r="B269" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C269" s="41"/>
-      <c r="D269" s="27"/>
+      <c r="C269" s="84"/>
+      <c r="D269" s="78"/>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="72" t="s">
+      <c r="A270" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B270" s="72" t="s">
+      <c r="B270" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C270" s="41"/>
-      <c r="D270" s="27"/>
+      <c r="C270" s="84"/>
+      <c r="D270" s="78"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="72" t="s">
+      <c r="A271" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B271" s="72" t="s">
+      <c r="B271" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C271" s="41"/>
-      <c r="D271" s="27"/>
+      <c r="C271" s="84"/>
+      <c r="D271" s="78"/>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="72" t="s">
+      <c r="A272" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B272" s="72" t="s">
+      <c r="B272" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C272" s="41"/>
-      <c r="D272" s="27"/>
+      <c r="C272" s="84"/>
+      <c r="D272" s="78"/>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="72" t="s">
+      <c r="A273" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B273" s="72" t="s">
+      <c r="B273" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C273" s="41"/>
-      <c r="D273" s="27"/>
+      <c r="C273" s="84"/>
+      <c r="D273" s="78"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="72" t="s">
+      <c r="A274" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B274" s="72" t="s">
+      <c r="B274" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C274" s="41"/>
-      <c r="D274" s="27"/>
+      <c r="C274" s="84"/>
+      <c r="D274" s="78"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="85" t="s">
+      <c r="A275" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="B275" s="72" t="s">
+      <c r="B275" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C275" s="41"/>
-      <c r="D275" s="27" t="s">
+      <c r="C275" s="84"/>
+      <c r="D275" s="78" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="86"/>
-      <c r="B276" s="72" t="s">
+      <c r="A276" s="89"/>
+      <c r="B276" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C276" s="41"/>
-      <c r="D276" s="27"/>
+      <c r="C276" s="84"/>
+      <c r="D276" s="78"/>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="86"/>
-      <c r="B277" s="72" t="s">
+      <c r="A277" s="89"/>
+      <c r="B277" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C277" s="41"/>
-      <c r="D277" s="27"/>
+      <c r="C277" s="84"/>
+      <c r="D277" s="78"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="80" t="s">
+      <c r="A283" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B283" s="99"/>
+      <c r="B283" s="65"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="81" t="s">
+      <c r="A284" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B284" s="81" t="s">
+      <c r="B284" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C284" s="21" t="s">
@@ -4187,120 +4190,120 @@
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="63" t="s">
+      <c r="A285" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B285" s="72" t="s">
+      <c r="B285" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C285" s="27" t="s">
+      <c r="C285" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D285" s="27" t="s">
+      <c r="D285" s="78" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="72" t="s">
+      <c r="A286" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B286" s="72" t="s">
+      <c r="B286" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C286" s="41"/>
-      <c r="D286" s="27"/>
+      <c r="C286" s="84"/>
+      <c r="D286" s="78"/>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="72" t="s">
+      <c r="A287" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B287" s="72" t="s">
+      <c r="B287" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C287" s="41"/>
-      <c r="D287" s="27"/>
+      <c r="C287" s="84"/>
+      <c r="D287" s="78"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="72" t="s">
+      <c r="A288" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B288" s="72" t="s">
+      <c r="B288" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C288" s="41"/>
-      <c r="D288" s="27"/>
+      <c r="C288" s="84"/>
+      <c r="D288" s="78"/>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="72" t="s">
+      <c r="A289" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B289" s="72" t="s">
+      <c r="B289" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C289" s="41"/>
-      <c r="D289" s="27"/>
+      <c r="C289" s="84"/>
+      <c r="D289" s="78"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="72" t="s">
+      <c r="A290" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B290" s="72" t="s">
+      <c r="B290" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C290" s="41"/>
-      <c r="D290" s="27"/>
+      <c r="C290" s="84"/>
+      <c r="D290" s="78"/>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="72" t="s">
+      <c r="A291" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B291" s="72" t="s">
+      <c r="B291" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C291" s="41"/>
-      <c r="D291" s="27"/>
+      <c r="C291" s="84"/>
+      <c r="D291" s="78"/>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="85" t="s">
+      <c r="A292" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="B292" s="72" t="s">
+      <c r="B292" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C292" s="41"/>
-      <c r="D292" s="27" t="s">
+      <c r="C292" s="84"/>
+      <c r="D292" s="78" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="86"/>
-      <c r="B293" s="72" t="s">
+      <c r="A293" s="89"/>
+      <c r="B293" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C293" s="41"/>
-      <c r="D293" s="27"/>
+      <c r="C293" s="84"/>
+      <c r="D293" s="78"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="86"/>
-      <c r="B294" s="72" t="s">
+      <c r="A294" s="89"/>
+      <c r="B294" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C294" s="41"/>
-      <c r="D294" s="27"/>
+      <c r="C294" s="84"/>
+      <c r="D294" s="78"/>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="75" t="s">
+      <c r="A299" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="B299" s="100"/>
+      <c r="B299" s="66"/>
       <c r="C299" s="24"/>
       <c r="D299" s="24"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="82" t="s">
+      <c r="A300" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B300" s="82" t="s">
+      <c r="B300" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C300" s="25" t="s">
@@ -4311,184 +4314,184 @@
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="56" t="s">
+      <c r="A301" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B301" s="56" t="s">
+      <c r="B301" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C301" s="27" t="s">
+      <c r="C301" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D301" s="27" t="s">
+      <c r="D301" s="78" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="56" t="s">
+      <c r="A302" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B302" s="56" t="s">
+      <c r="B302" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C302" s="27"/>
-      <c r="D302" s="27"/>
+      <c r="C302" s="78"/>
+      <c r="D302" s="78"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="87" t="s">
+      <c r="A303" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B303" s="56" t="s">
+      <c r="B303" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C303" s="27"/>
-      <c r="D303" s="27"/>
+      <c r="C303" s="78"/>
+      <c r="D303" s="78"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="56" t="s">
+      <c r="A304" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B304" s="56" t="s">
+      <c r="B304" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C304" s="27"/>
-      <c r="D304" s="27"/>
+      <c r="C304" s="78"/>
+      <c r="D304" s="78"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="56" t="s">
+      <c r="A305" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B305" s="56" t="s">
+      <c r="B305" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C305" s="27"/>
-      <c r="D305" s="27"/>
+      <c r="C305" s="78"/>
+      <c r="D305" s="78"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="56" t="s">
+      <c r="A306" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B306" s="56" t="s">
+      <c r="B306" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C306" s="27"/>
-      <c r="D306" s="27"/>
+      <c r="C306" s="78"/>
+      <c r="D306" s="78"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="B307" s="56" t="s">
+      <c r="A307" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="B307" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C307" s="27"/>
-      <c r="D307" s="27"/>
+      <c r="C307" s="78"/>
+      <c r="D307" s="78"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="B308" s="56" t="s">
+      <c r="A308" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B308" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C308" s="27"/>
-      <c r="D308" s="27"/>
+      <c r="C308" s="78"/>
+      <c r="D308" s="78"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="56" t="s">
+      <c r="A309" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B309" s="56" t="s">
+      <c r="B309" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C309" s="27"/>
-      <c r="D309" s="27"/>
+      <c r="C309" s="78"/>
+      <c r="D309" s="78"/>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="56" t="s">
+      <c r="A310" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B310" s="56" t="s">
+      <c r="B310" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C310" s="27"/>
-      <c r="D310" s="27"/>
+      <c r="C310" s="78"/>
+      <c r="D310" s="78"/>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="70" t="s">
+      <c r="A311" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B311" s="100" t="s">
+      <c r="B311" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="C311" s="27"/>
-      <c r="D311" s="42" t="s">
+      <c r="C311" s="78"/>
+      <c r="D311" s="90" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="70" t="s">
+      <c r="A312" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B312" s="100" t="s">
+      <c r="B312" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="C312" s="27"/>
-      <c r="D312" s="42"/>
+      <c r="C312" s="78"/>
+      <c r="D312" s="90"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="70" t="s">
+      <c r="A313" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B313" s="100" t="s">
+      <c r="B313" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="C313" s="27"/>
-      <c r="D313" s="42"/>
+      <c r="C313" s="78"/>
+      <c r="D313" s="90"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="70" t="s">
+      <c r="A314" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B314" s="100" t="s">
+      <c r="B314" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="C314" s="27"/>
-      <c r="D314" s="42"/>
+      <c r="C314" s="78"/>
+      <c r="D314" s="90"/>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="70" t="s">
+      <c r="A315" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B315" s="100" t="s">
+      <c r="B315" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C315" s="27"/>
-      <c r="D315" s="42"/>
+      <c r="C315" s="78"/>
+      <c r="D315" s="90"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="70" t="s">
+      <c r="A316" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B316" s="100" t="s">
+      <c r="B316" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C316" s="27"/>
-      <c r="D316" s="42"/>
+      <c r="C316" s="78"/>
+      <c r="D316" s="90"/>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="75" t="s">
+      <c r="A320" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B320" s="100"/>
+      <c r="B320" s="66"/>
       <c r="C320" s="24"/>
       <c r="D320" s="24"/>
     </row>
     <row r="321" spans="1:9">
-      <c r="A321" s="82" t="s">
+      <c r="A321" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B321" s="82" t="s">
+      <c r="B321" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C321" s="25" t="s">
@@ -4497,198 +4500,198 @@
       <c r="D321" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F321" s="102"/>
-      <c r="G321" s="102"/>
-      <c r="H321" s="102"/>
-      <c r="I321" s="102"/>
+      <c r="F321" s="68"/>
+      <c r="G321" s="68"/>
+      <c r="H321" s="68"/>
+      <c r="I321" s="68"/>
     </row>
     <row r="322" spans="1:9">
-      <c r="A322" s="70" t="s">
+      <c r="A322" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B322" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C322" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D322" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="F322" s="68"/>
+      <c r="G322" s="68"/>
+      <c r="H322" s="68"/>
+      <c r="I322" s="68"/>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="B322" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C322" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D322" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F322" s="102"/>
-      <c r="G322" s="102"/>
-      <c r="H322" s="102"/>
-      <c r="I322" s="102"/>
-    </row>
-    <row r="323" spans="1:9">
-      <c r="A323" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="B323" s="70" t="s">
+      <c r="B323" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C323" s="27"/>
-      <c r="D323" s="27"/>
-      <c r="F323" s="102"/>
-      <c r="G323" s="102"/>
-      <c r="H323" s="102"/>
-      <c r="I323" s="102"/>
+      <c r="C323" s="78"/>
+      <c r="D323" s="78"/>
+      <c r="F323" s="68"/>
+      <c r="G323" s="68"/>
+      <c r="H323" s="68"/>
+      <c r="I323" s="68"/>
     </row>
     <row r="324" spans="1:9">
-      <c r="A324" s="70" t="s">
-        <v>329</v>
-      </c>
-      <c r="B324" s="70" t="s">
+      <c r="A324" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="C324" s="27"/>
-      <c r="D324" s="27"/>
-      <c r="F324" s="102"/>
-      <c r="G324" s="102"/>
-      <c r="H324" s="102"/>
-      <c r="I324" s="102"/>
+      <c r="C324" s="78"/>
+      <c r="D324" s="78"/>
+      <c r="F324" s="68"/>
+      <c r="G324" s="68"/>
+      <c r="H324" s="68"/>
+      <c r="I324" s="68"/>
     </row>
     <row r="325" spans="1:9">
-      <c r="A325" s="70" t="s">
+      <c r="A325" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B325" s="70" t="s">
+      <c r="B325" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C325" s="27" t="s">
+      <c r="C325" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="D325" s="27"/>
-      <c r="F325" s="102"/>
-      <c r="G325" s="102"/>
-      <c r="H325" s="102"/>
-      <c r="I325" s="102"/>
+      <c r="D325" s="78"/>
+      <c r="F325" s="68"/>
+      <c r="G325" s="68"/>
+      <c r="H325" s="68"/>
+      <c r="I325" s="68"/>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" s="63" t="s">
+      <c r="A326" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B326" s="70" t="s">
+      <c r="B326" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="C326" s="27"/>
-      <c r="D326" s="27"/>
-      <c r="F326" s="102"/>
-      <c r="G326" s="102"/>
-      <c r="H326" s="102"/>
-      <c r="I326" s="102"/>
+      <c r="C326" s="78"/>
+      <c r="D326" s="78"/>
+      <c r="F326" s="68"/>
+      <c r="G326" s="68"/>
+      <c r="H326" s="68"/>
+      <c r="I326" s="68"/>
     </row>
     <row r="327" spans="1:9" ht="28.8">
-      <c r="A327" s="63" t="s">
+      <c r="A327" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B327" s="70" t="s">
+      <c r="B327" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="C327" s="27"/>
-      <c r="D327" s="27"/>
-      <c r="F327" s="103"/>
-      <c r="G327" s="103"/>
-      <c r="H327" s="102"/>
-      <c r="I327" s="102"/>
+      <c r="C327" s="78"/>
+      <c r="D327" s="78"/>
+      <c r="F327" s="69"/>
+      <c r="G327" s="69"/>
+      <c r="H327" s="68"/>
+      <c r="I327" s="68"/>
     </row>
     <row r="328" spans="1:9" ht="28.8">
-      <c r="A328" s="63" t="s">
+      <c r="A328" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B328" s="70" t="s">
+      <c r="B328" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="C328" s="27" t="s">
+      <c r="C328" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D328" s="27"/>
-      <c r="F328" s="103"/>
-      <c r="G328" s="103"/>
-      <c r="H328" s="102"/>
-      <c r="I328" s="102"/>
+      <c r="D328" s="78"/>
+      <c r="F328" s="69"/>
+      <c r="G328" s="69"/>
+      <c r="H328" s="68"/>
+      <c r="I328" s="68"/>
     </row>
     <row r="329" spans="1:9" ht="28.8">
-      <c r="A329" s="63" t="s">
+      <c r="A329" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B329" s="70" t="s">
+      <c r="B329" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="C329" s="27"/>
-      <c r="D329" s="27"/>
-      <c r="F329" s="103"/>
-      <c r="G329" s="103"/>
-      <c r="H329" s="102"/>
-      <c r="I329" s="102"/>
+      <c r="C329" s="78"/>
+      <c r="D329" s="78"/>
+      <c r="F329" s="69"/>
+      <c r="G329" s="69"/>
+      <c r="H329" s="68"/>
+      <c r="I329" s="68"/>
     </row>
     <row r="330" spans="1:9" ht="43.2">
-      <c r="A330" s="63" t="s">
+      <c r="A330" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B330" s="70" t="s">
+      <c r="B330" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="C330" s="27"/>
-      <c r="D330" s="27"/>
-      <c r="F330" s="103"/>
-      <c r="G330" s="103"/>
-      <c r="H330" s="102"/>
-      <c r="I330" s="102"/>
+      <c r="C330" s="78"/>
+      <c r="D330" s="78"/>
+      <c r="F330" s="69"/>
+      <c r="G330" s="69"/>
+      <c r="H330" s="68"/>
+      <c r="I330" s="68"/>
     </row>
     <row r="331" spans="1:9" ht="28.8">
-      <c r="A331" s="63" t="s">
+      <c r="A331" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B331" s="100" t="s">
+      <c r="B331" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="C331" s="27"/>
-      <c r="D331" s="27"/>
-      <c r="F331" s="103"/>
-      <c r="G331" s="103"/>
-      <c r="H331" s="102"/>
-      <c r="I331" s="102"/>
+      <c r="C331" s="78"/>
+      <c r="D331" s="78"/>
+      <c r="F331" s="69"/>
+      <c r="G331" s="69"/>
+      <c r="H331" s="68"/>
+      <c r="I331" s="68"/>
     </row>
     <row r="332" spans="1:9" ht="28.8">
-      <c r="A332" s="63" t="s">
+      <c r="A332" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B332" s="100" t="s">
+      <c r="B332" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="C332" s="27"/>
-      <c r="D332" s="27"/>
-      <c r="F332" s="103"/>
-      <c r="G332" s="103"/>
-      <c r="H332" s="102"/>
-      <c r="I332" s="102"/>
+      <c r="C332" s="78"/>
+      <c r="D332" s="78"/>
+      <c r="F332" s="69"/>
+      <c r="G332" s="69"/>
+      <c r="H332" s="68"/>
+      <c r="I332" s="68"/>
     </row>
     <row r="333" spans="1:9">
-      <c r="F333" s="103"/>
-      <c r="G333" s="103"/>
-      <c r="H333" s="102"/>
-      <c r="I333" s="102"/>
+      <c r="F333" s="69"/>
+      <c r="G333" s="69"/>
+      <c r="H333" s="68"/>
+      <c r="I333" s="68"/>
     </row>
     <row r="334" spans="1:9">
-      <c r="F334" s="103"/>
-      <c r="G334" s="103"/>
-      <c r="H334" s="102"/>
-      <c r="I334" s="102"/>
+      <c r="F334" s="69"/>
+      <c r="G334" s="69"/>
+      <c r="H334" s="68"/>
+      <c r="I334" s="68"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="75" t="s">
+      <c r="A338" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B338" s="100"/>
+      <c r="B338" s="66"/>
       <c r="C338" s="24"/>
       <c r="D338" s="24"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="82" t="s">
+      <c r="A339" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B339" s="82" t="s">
+      <c r="B339" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C339" s="25" t="s">
@@ -4699,122 +4702,122 @@
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="56" t="s">
+      <c r="A340" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B340" s="56" t="s">
+      <c r="B340" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C340" s="27" t="s">
+      <c r="C340" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D340" s="27" t="s">
+      <c r="D340" s="78" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="56" t="s">
+      <c r="A341" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B341" s="56" t="s">
+      <c r="B341" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C341" s="27"/>
-      <c r="D341" s="27"/>
+      <c r="C341" s="78"/>
+      <c r="D341" s="78"/>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="87" t="s">
+      <c r="A342" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B342" s="56" t="s">
+      <c r="B342" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C342" s="27"/>
-      <c r="D342" s="27"/>
+      <c r="C342" s="78"/>
+      <c r="D342" s="78"/>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="56" t="s">
+      <c r="A343" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B343" s="56" t="s">
+      <c r="B343" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C343" s="27"/>
-      <c r="D343" s="27"/>
+      <c r="C343" s="78"/>
+      <c r="D343" s="78"/>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="56" t="s">
+      <c r="A344" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B344" s="56" t="s">
+      <c r="B344" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C344" s="27"/>
-      <c r="D344" s="27"/>
+      <c r="C344" s="78"/>
+      <c r="D344" s="78"/>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="56" t="s">
+      <c r="A345" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B345" s="56" t="s">
+      <c r="B345" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C345" s="27"/>
-      <c r="D345" s="27"/>
+      <c r="C345" s="78"/>
+      <c r="D345" s="78"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="B346" s="56" t="s">
+      <c r="A346" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="B346" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C346" s="27"/>
-      <c r="D346" s="27"/>
+      <c r="C346" s="78"/>
+      <c r="D346" s="78"/>
     </row>
     <row r="347" spans="1:4" ht="27.6">
-      <c r="A347" s="56" t="s">
+      <c r="A347" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B347" s="56" t="s">
+      <c r="B347" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C347" s="27"/>
-      <c r="D347" s="27"/>
+      <c r="C347" s="78"/>
+      <c r="D347" s="78"/>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="56" t="s">
+      <c r="A348" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B348" s="56" t="s">
+      <c r="B348" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C348" s="27"/>
-      <c r="D348" s="27"/>
+      <c r="C348" s="78"/>
+      <c r="D348" s="78"/>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="56" t="s">
+      <c r="A349" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B349" s="56" t="s">
+      <c r="B349" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C349" s="27"/>
-      <c r="D349" s="27"/>
+      <c r="C349" s="78"/>
+      <c r="D349" s="78"/>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="75" t="s">
+      <c r="A354" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="B354" s="100"/>
+      <c r="B354" s="66"/>
       <c r="C354" s="24"/>
       <c r="D354" s="24"/>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="82" t="s">
+      <c r="A355" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B355" s="82" t="s">
+      <c r="B355" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C355" s="25" t="s">
@@ -4825,10 +4828,10 @@
       </c>
     </row>
     <row r="356" spans="1:5" ht="28.8">
-      <c r="A356" s="70" t="s">
+      <c r="A356" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B356" s="70" t="s">
+      <c r="B356" s="41" t="s">
         <v>231</v>
       </c>
       <c r="C356" s="15" t="s">
@@ -4839,10 +4842,10 @@
       </c>
     </row>
     <row r="357" spans="1:5" ht="28.8">
-      <c r="A357" s="70" t="s">
+      <c r="A357" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B357" s="70" t="s">
+      <c r="B357" s="41" t="s">
         <v>235</v>
       </c>
       <c r="C357" s="15" t="s">
@@ -4853,19 +4856,19 @@
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="80" t="s">
+      <c r="A362" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="B362" s="99"/>
+      <c r="B362" s="65"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="81" t="s">
+      <c r="A363" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B363" s="81" t="s">
+      <c r="B363" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C363" s="21" t="s">
@@ -4877,300 +4880,300 @@
       <c r="E363" s="5"/>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="63" t="s">
+      <c r="A364" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B364" s="63" t="s">
+      <c r="B364" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="C364" s="34" t="s">
+      <c r="C364" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D364" s="53" t="s">
+      <c r="D364" s="73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="63" t="s">
+      <c r="A365" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B365" s="63" t="s">
+      <c r="B365" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C365" s="34"/>
-      <c r="D365" s="54"/>
+      <c r="C365" s="77"/>
+      <c r="D365" s="74"/>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="63" t="s">
+      <c r="A366" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B366" s="63" t="s">
+      <c r="B366" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="C366" s="34"/>
-      <c r="D366" s="54"/>
+      <c r="C366" s="77"/>
+      <c r="D366" s="74"/>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="63" t="s">
+      <c r="A367" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B367" s="63" t="s">
+      <c r="B367" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C367" s="34"/>
-      <c r="D367" s="54"/>
+      <c r="C367" s="77"/>
+      <c r="D367" s="74"/>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="63" t="s">
+      <c r="A368" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B368" s="63" t="s">
+      <c r="B368" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="C368" s="34"/>
-      <c r="D368" s="54"/>
+      <c r="C368" s="77"/>
+      <c r="D368" s="74"/>
     </row>
     <row r="369" spans="1:4">
-      <c r="A369" s="63" t="s">
+      <c r="A369" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B369" s="63" t="s">
+      <c r="B369" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="C369" s="34" t="s">
+      <c r="C369" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="D369" s="54"/>
+      <c r="D369" s="74"/>
     </row>
     <row r="370" spans="1:4">
-      <c r="A370" s="63" t="s">
+      <c r="A370" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B370" s="63" t="s">
+      <c r="B370" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="C370" s="34"/>
-      <c r="D370" s="54"/>
+      <c r="C370" s="77"/>
+      <c r="D370" s="74"/>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="63" t="s">
+      <c r="A371" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B371" s="63" t="s">
+      <c r="B371" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="C371" s="34"/>
-      <c r="D371" s="54"/>
+      <c r="C371" s="77"/>
+      <c r="D371" s="74"/>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B372" s="63" t="s">
+      <c r="A372" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B372" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C372" s="50" t="s">
+      <c r="C372" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D372" s="55"/>
+      <c r="D372" s="75"/>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="88" t="s">
+      <c r="A373" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="B373" s="63" t="s">
+      <c r="B373" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C373" s="51"/>
+      <c r="C373" s="82"/>
       <c r="D373" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="63" t="s">
+      <c r="A374" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B374" s="63" t="s">
+      <c r="B374" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C374" s="51"/>
-      <c r="D374" s="53" t="s">
+      <c r="C374" s="82"/>
+      <c r="D374" s="73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="57" t="s">
+      <c r="A375" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B375" s="63" t="s">
+      <c r="B375" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C375" s="51"/>
-      <c r="D375" s="55"/>
+      <c r="C375" s="82"/>
+      <c r="D375" s="75"/>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="72" t="s">
+      <c r="A376" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B376" s="63" t="s">
+      <c r="B376" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C376" s="51"/>
-      <c r="D376" s="53" t="s">
+      <c r="C376" s="82"/>
+      <c r="D376" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="377" spans="1:4">
-      <c r="A377" s="72" t="s">
+      <c r="A377" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B377" s="72" t="s">
+      <c r="B377" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C377" s="51"/>
-      <c r="D377" s="55"/>
+      <c r="C377" s="82"/>
+      <c r="D377" s="75"/>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" s="72" t="s">
+      <c r="A378" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B378" s="63" t="s">
+      <c r="B378" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C378" s="51"/>
+      <c r="C378" s="82"/>
       <c r="D378" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="27.6">
-      <c r="A379" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="B379" s="63" t="s">
+      <c r="A379" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B379" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="C379" s="51"/>
-      <c r="D379" s="53" t="s">
+      <c r="C379" s="82"/>
+      <c r="D379" s="73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="63" t="s">
+      <c r="A380" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B380" s="63" t="s">
+      <c r="B380" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C380" s="51"/>
-      <c r="D380" s="54"/>
+      <c r="C380" s="82"/>
+      <c r="D380" s="74"/>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="56" t="s">
+      <c r="A381" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B381" s="63" t="s">
+      <c r="B381" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C381" s="52"/>
-      <c r="D381" s="55"/>
+      <c r="C381" s="83"/>
+      <c r="D381" s="75"/>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="72" t="s">
+      <c r="A382" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B382" s="72" t="s">
+      <c r="B382" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C382" s="27" t="s">
+      <c r="C382" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D382" s="27" t="s">
+      <c r="D382" s="78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="28.8">
+      <c r="A383" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B383" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C383" s="78"/>
+      <c r="D383" s="78"/>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B384" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C384" s="78"/>
+      <c r="D384" s="78"/>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B385" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C385" s="78"/>
+      <c r="D385" s="78"/>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B386" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C386" s="78"/>
+      <c r="D386" s="78"/>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B387" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C387" s="78"/>
+      <c r="D387" s="78"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="71"/>
+      <c r="B388" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C388" s="78"/>
+      <c r="D388" s="78" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="28.8">
-      <c r="A383" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B383" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C383" s="27"/>
-      <c r="D383" s="27"/>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B384" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="C384" s="27"/>
-      <c r="D384" s="27"/>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B385" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="C385" s="27"/>
-      <c r="D385" s="27"/>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B386" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="C386" s="27"/>
-      <c r="D386" s="27"/>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="B387" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="C387" s="27"/>
-      <c r="D387" s="27"/>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="90"/>
-      <c r="B388" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="C388" s="27"/>
-      <c r="D388" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="90"/>
-      <c r="B389" s="72" t="s">
+      <c r="A389" s="71"/>
+      <c r="B389" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C389" s="27"/>
-      <c r="D389" s="27"/>
+      <c r="C389" s="78"/>
+      <c r="D389" s="78"/>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="90"/>
-      <c r="B390" s="72" t="s">
+      <c r="A390" s="71"/>
+      <c r="B390" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C390" s="27"/>
-      <c r="D390" s="27"/>
+      <c r="C390" s="78"/>
+      <c r="D390" s="78"/>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="91"/>
-      <c r="B391" s="72" t="s">
+      <c r="A391" s="72"/>
+      <c r="B391" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="C391" s="27"/>
-      <c r="D391" s="27"/>
+      <c r="C391" s="78"/>
+      <c r="D391" s="78"/>
     </row>
     <row r="392" spans="1:4">
       <c r="D392" s="9"/>
@@ -5179,18 +5182,18 @@
       <c r="D393" s="9"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="92" t="s">
+      <c r="A398" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="B398" s="101"/>
+      <c r="B398" s="67"/>
       <c r="C398" s="23"/>
       <c r="D398" s="23"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="93" t="s">
+      <c r="A399" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B399" s="93" t="s">
+      <c r="B399" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C399" s="22" t="s">
@@ -5201,84 +5204,84 @@
       </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B400" s="63" t="s">
+      <c r="A400" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B400" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C400" s="27" t="s">
+      <c r="C400" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D400" s="45" t="s">
+      <c r="D400" s="85" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="63" t="s">
+      <c r="A401" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B401" s="63" t="s">
+      <c r="B401" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C401" s="41"/>
-      <c r="D401" s="46"/>
+      <c r="C401" s="84"/>
+      <c r="D401" s="86"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="72"/>
-      <c r="B402" s="72" t="s">
+      <c r="A402" s="43"/>
+      <c r="B402" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="C402" s="41"/>
-      <c r="D402" s="46"/>
+      <c r="C402" s="84"/>
+      <c r="D402" s="86"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="84" t="s">
+      <c r="A403" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B403" s="63" t="s">
+      <c r="B403" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C403" s="41"/>
-      <c r="D403" s="47"/>
+      <c r="C403" s="84"/>
+      <c r="D403" s="87"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="94" t="s">
+      <c r="A404" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B404" s="94" t="s">
+      <c r="B404" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="C404" s="41"/>
+      <c r="C404" s="84"/>
       <c r="D404" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="63" t="s">
+      <c r="A405" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B405" s="63" t="s">
+      <c r="B405" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="41"/>
+      <c r="C405" s="84"/>
       <c r="D405" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="17.399999999999999">
-      <c r="A410" s="95" t="s">
+      <c r="A410" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="B410" s="100"/>
+      <c r="B410" s="66"/>
       <c r="C410" s="24"/>
       <c r="D410" s="24"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="82" t="s">
+      <c r="A411" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B411" s="82" t="s">
+      <c r="B411" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C411" s="25" t="s">
@@ -5289,130 +5292,130 @@
       </c>
     </row>
     <row r="412" spans="1:4" ht="27.6">
-      <c r="A412" s="56" t="s">
+      <c r="A412" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="B412" s="56" t="s">
+      <c r="B412" s="27" t="s">
         <v>258</v>
       </c>
       <c r="C412" s="15"/>
-      <c r="D412" s="27" t="s">
+      <c r="D412" s="78" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="27.6">
-      <c r="A413" s="56" t="s">
+      <c r="A413" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B413" s="56" t="s">
+      <c r="B413" s="27" t="s">
         <v>260</v>
       </c>
       <c r="C413" s="15"/>
-      <c r="D413" s="27"/>
+      <c r="D413" s="78"/>
     </row>
     <row r="414" spans="1:4" ht="27.6">
-      <c r="A414" s="87" t="s">
+      <c r="A414" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="B414" s="56" t="s">
+      <c r="B414" s="27" t="s">
         <v>262</v>
       </c>
       <c r="C414" s="15"/>
-      <c r="D414" s="27"/>
+      <c r="D414" s="78"/>
     </row>
     <row r="415" spans="1:4" ht="41.4">
-      <c r="A415" s="56" t="s">
+      <c r="A415" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="B415" s="56" t="s">
+      <c r="B415" s="27" t="s">
         <v>264</v>
       </c>
       <c r="C415" s="15"/>
-      <c r="D415" s="27"/>
+      <c r="D415" s="78"/>
     </row>
     <row r="416" spans="1:4" ht="27.6">
-      <c r="A416" s="56" t="s">
+      <c r="A416" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B416" s="56" t="s">
+      <c r="B416" s="27" t="s">
         <v>266</v>
       </c>
       <c r="C416" s="15"/>
-      <c r="D416" s="27"/>
+      <c r="D416" s="78"/>
     </row>
     <row r="417" spans="1:4" ht="27.6">
-      <c r="A417" s="56" t="s">
+      <c r="A417" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B417" s="56" t="s">
+      <c r="B417" s="27" t="s">
         <v>268</v>
       </c>
       <c r="C417" s="15"/>
-      <c r="D417" s="27"/>
+      <c r="D417" s="78"/>
     </row>
     <row r="418" spans="1:4" ht="41.4">
-      <c r="A418" s="56" t="s">
+      <c r="A418" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="B418" s="56" t="s">
+      <c r="B418" s="27" t="s">
         <v>270</v>
       </c>
       <c r="C418" s="15"/>
-      <c r="D418" s="27"/>
+      <c r="D418" s="78"/>
     </row>
     <row r="419" spans="1:4" ht="27.6">
-      <c r="A419" s="56" t="s">
+      <c r="A419" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B419" s="56" t="s">
+      <c r="B419" s="27" t="s">
         <v>272</v>
       </c>
       <c r="C419" s="15"/>
-      <c r="D419" s="27"/>
+      <c r="D419" s="78"/>
     </row>
     <row r="420" spans="1:4" ht="55.2">
-      <c r="A420" s="56" t="s">
+      <c r="A420" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B420" s="56" t="s">
+      <c r="B420" s="27" t="s">
         <v>274</v>
       </c>
       <c r="C420" s="15"/>
-      <c r="D420" s="27"/>
+      <c r="D420" s="78"/>
     </row>
     <row r="421" spans="1:4" ht="27.6">
-      <c r="A421" s="56" t="s">
+      <c r="A421" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B421" s="56" t="s">
+      <c r="B421" s="27" t="s">
         <v>276</v>
       </c>
       <c r="C421" s="15"/>
-      <c r="D421" s="27"/>
+      <c r="D421" s="78"/>
     </row>
     <row r="422" spans="1:4" ht="43.2">
-      <c r="A422" s="70" t="s">
+      <c r="A422" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="B422" s="100" t="s">
+      <c r="B422" s="66" t="s">
         <v>278</v>
       </c>
       <c r="C422" s="24"/>
-      <c r="D422" s="27"/>
+      <c r="D422" s="78"/>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="80" t="s">
+      <c r="A428" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="B428" s="99"/>
+      <c r="B428" s="65"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="81" t="s">
+      <c r="A429" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B429" s="81" t="s">
+      <c r="B429" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C429" s="21" t="s">
@@ -5423,10 +5426,10 @@
       </c>
     </row>
     <row r="430" spans="1:4" ht="69">
-      <c r="A430" s="72" t="s">
+      <c r="A430" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="B430" s="72" t="s">
+      <c r="B430" s="43" t="s">
         <v>281</v>
       </c>
       <c r="C430" s="15" t="s">
@@ -5437,70 +5440,70 @@
       </c>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="72" t="s">
+      <c r="A431" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="B431" s="72" t="s">
+      <c r="B431" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C431" s="27"/>
-      <c r="D431" s="27" t="s">
+      <c r="C431" s="78"/>
+      <c r="D431" s="78" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:4">
-      <c r="A432" s="63" t="s">
+      <c r="A432" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="B432" s="63" t="s">
+      <c r="B432" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="C432" s="40"/>
-      <c r="D432" s="40"/>
+      <c r="C432" s="80"/>
+      <c r="D432" s="80"/>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="63" t="s">
+      <c r="A433" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B433" s="63" t="s">
+      <c r="B433" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C433" s="40"/>
-      <c r="D433" s="40"/>
+      <c r="C433" s="80"/>
+      <c r="D433" s="80"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="63" t="s">
+      <c r="A434" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="B434" s="63" t="s">
+      <c r="B434" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C434" s="40"/>
-      <c r="D434" s="40"/>
+      <c r="C434" s="80"/>
+      <c r="D434" s="80"/>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="63" t="s">
+      <c r="A435" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B435" s="63" t="s">
+      <c r="B435" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="C435" s="40"/>
-      <c r="D435" s="40"/>
+      <c r="C435" s="80"/>
+      <c r="D435" s="80"/>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="80" t="s">
+      <c r="A441" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="B441" s="99"/>
+      <c r="B441" s="65"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="81" t="s">
+      <c r="A442" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B442" s="81" t="s">
+      <c r="B442" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C442" s="21" t="s">
@@ -5511,170 +5514,170 @@
       </c>
     </row>
     <row r="443" spans="1:4">
-      <c r="A443" s="63" t="s">
+      <c r="A443" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B443" s="72" t="s">
+      <c r="B443" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C443" s="34" t="s">
+      <c r="C443" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D443" s="34" t="s">
+      <c r="D443" s="77" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="63" t="s">
+      <c r="A444" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B444" s="72" t="s">
+      <c r="B444" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C444" s="34"/>
-      <c r="D444" s="34"/>
+      <c r="C444" s="77"/>
+      <c r="D444" s="77"/>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="63" t="s">
+      <c r="A445" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B445" s="72" t="s">
+      <c r="B445" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C445" s="34"/>
-      <c r="D445" s="34"/>
+      <c r="C445" s="77"/>
+      <c r="D445" s="77"/>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="63" t="s">
+      <c r="A446" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B446" s="63" t="s">
+      <c r="B446" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C446" s="34"/>
-      <c r="D446" s="34" t="s">
+      <c r="C446" s="77"/>
+      <c r="D446" s="77" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="63" t="s">
+      <c r="A447" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B447" s="63" t="s">
+      <c r="B447" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="C447" s="34"/>
-      <c r="D447" s="34"/>
+      <c r="C447" s="77"/>
+      <c r="D447" s="77"/>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="63" t="s">
+      <c r="A448" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B448" s="63" t="s">
+      <c r="B448" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C448" s="34"/>
-      <c r="D448" s="34"/>
+      <c r="C448" s="77"/>
+      <c r="D448" s="77"/>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="63" t="s">
+      <c r="A449" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B449" s="63" t="s">
+      <c r="B449" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="C449" s="34" t="s">
+      <c r="C449" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="D449" s="43" t="s">
+      <c r="D449" s="76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="63" t="s">
+      <c r="A450" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B450" s="63" t="s">
+      <c r="B450" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C450" s="34"/>
-      <c r="D450" s="43"/>
+      <c r="C450" s="77"/>
+      <c r="D450" s="76"/>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="63" t="s">
+      <c r="A451" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B451" s="63" t="s">
+      <c r="B451" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C451" s="34"/>
-      <c r="D451" s="43"/>
+      <c r="C451" s="77"/>
+      <c r="D451" s="76"/>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="63" t="s">
+      <c r="A452" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B452" s="63" t="s">
+      <c r="B452" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="C452" s="34" t="s">
+      <c r="C452" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D452" s="43"/>
+      <c r="D452" s="76"/>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="63" t="s">
+      <c r="A453" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B453" s="63" t="s">
+      <c r="B453" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="C453" s="34"/>
-      <c r="D453" s="43"/>
+      <c r="C453" s="77"/>
+      <c r="D453" s="76"/>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="63" t="s">
+      <c r="A454" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B454" s="63" t="s">
+      <c r="B454" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C454" s="34"/>
-      <c r="D454" s="43"/>
+      <c r="C454" s="77"/>
+      <c r="D454" s="76"/>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="63" t="s">
+      <c r="A455" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B455" s="63" t="s">
+      <c r="B455" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C455" s="34"/>
-      <c r="D455" s="43"/>
+      <c r="C455" s="77"/>
+      <c r="D455" s="76"/>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="63" t="s">
+      <c r="A456" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B456" s="63" t="s">
+      <c r="B456" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C456" s="34"/>
-      <c r="D456" s="43"/>
+      <c r="C456" s="77"/>
+      <c r="D456" s="76"/>
     </row>
     <row r="461" spans="1:4" ht="15.6">
-      <c r="A461" s="96" t="s">
+      <c r="A461" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="B461" s="100"/>
+      <c r="B461" s="66"/>
       <c r="C461" s="24"/>
       <c r="D461" s="24"/>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="82" t="s">
+      <c r="A462" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B462" s="82" t="s">
+      <c r="B462" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C462" s="25" t="s">
@@ -5685,126 +5688,126 @@
       </c>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="56" t="s">
+      <c r="A463" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B463" s="56" t="s">
+      <c r="B463" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C463" s="27" t="s">
+      <c r="C463" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D463" s="27" t="s">
+      <c r="D463" s="78" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="56" t="s">
+      <c r="A464" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B464" s="56" t="s">
+      <c r="B464" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C464" s="27"/>
-      <c r="D464" s="27"/>
+      <c r="C464" s="78"/>
+      <c r="D464" s="78"/>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="87" t="s">
+      <c r="A465" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B465" s="56" t="s">
+      <c r="B465" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C465" s="27"/>
-      <c r="D465" s="27"/>
+      <c r="C465" s="78"/>
+      <c r="D465" s="78"/>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="56" t="s">
+      <c r="A466" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B466" s="56" t="s">
+      <c r="B466" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="C466" s="27"/>
-      <c r="D466" s="27"/>
+      <c r="C466" s="78"/>
+      <c r="D466" s="78"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="56" t="s">
+      <c r="A467" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B467" s="56" t="s">
+      <c r="B467" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C467" s="27"/>
-      <c r="D467" s="27"/>
+      <c r="C467" s="78"/>
+      <c r="D467" s="78"/>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="56" t="s">
+      <c r="A468" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B468" s="56" t="s">
+      <c r="B468" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="C468" s="27"/>
-      <c r="D468" s="27"/>
+      <c r="C468" s="78"/>
+      <c r="D468" s="78"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="56" t="s">
+      <c r="A469" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B469" s="56" t="s">
+      <c r="B469" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="C469" s="27"/>
-      <c r="D469" s="27"/>
+      <c r="C469" s="78"/>
+      <c r="D469" s="78"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="56" t="s">
+      <c r="A470" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B470" s="56" t="s">
+      <c r="B470" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C470" s="27"/>
+      <c r="C470" s="78"/>
       <c r="D470" s="26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="56" t="s">
+      <c r="A471" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B471" s="56" t="s">
+      <c r="B471" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="C471" s="27"/>
-      <c r="D471" s="44" t="s">
+      <c r="C471" s="78"/>
+      <c r="D471" s="79" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="56" t="s">
+      <c r="A472" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B472" s="56" t="s">
+      <c r="B472" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C472" s="27"/>
-      <c r="D472" s="44"/>
+      <c r="C472" s="78"/>
+      <c r="D472" s="79"/>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="80" t="s">
-        <v>311</v>
-      </c>
-      <c r="B476" s="99"/>
+      <c r="A476" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B476" s="65"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="81" t="s">
+      <c r="A477" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B477" s="81" t="s">
+      <c r="B477" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C477" s="21" t="s">
@@ -5815,92 +5818,92 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="63" t="s">
+      <c r="A478" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B478" s="63" t="s">
+      <c r="B478" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C478" s="34" t="s">
+      <c r="C478" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D478" s="34" t="s">
-        <v>312</v>
+      <c r="D478" s="77" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="63" t="s">
+      <c r="A479" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B479" s="63" t="s">
+      <c r="B479" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C479" s="34"/>
-      <c r="D479" s="34"/>
+      <c r="C479" s="77"/>
+      <c r="D479" s="77"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="63" t="s">
+      <c r="A480" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B480" s="88" t="s">
+      <c r="B480" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="C480" s="34"/>
-      <c r="D480" s="34"/>
+      <c r="C480" s="77"/>
+      <c r="D480" s="77"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="72" t="s">
+      <c r="A481" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B481" s="72" t="s">
+      <c r="B481" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C481" s="34"/>
-      <c r="D481" s="34"/>
+      <c r="C481" s="77"/>
+      <c r="D481" s="77"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="72" t="s">
+      <c r="A482" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B482" s="72" t="s">
+      <c r="B482" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C482" s="34"/>
-      <c r="D482" s="34"/>
+      <c r="C482" s="77"/>
+      <c r="D482" s="77"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="63" t="s">
+      <c r="A483" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B483" s="63" t="s">
+      <c r="B483" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C483" s="34"/>
-      <c r="D483" s="34"/>
+      <c r="C483" s="77"/>
+      <c r="D483" s="77"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="63" t="s">
+      <c r="A484" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B484" s="63" t="s">
+      <c r="B484" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C484" s="34"/>
-      <c r="D484" s="34"/>
+      <c r="C484" s="77"/>
+      <c r="D484" s="77"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="80" t="s">
-        <v>311</v>
-      </c>
-      <c r="B490" s="99"/>
+      <c r="A490" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="B490" s="65"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="81" t="s">
+      <c r="A491" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B491" s="81" t="s">
+      <c r="B491" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C491" s="21" t="s">
@@ -5911,13 +5914,13 @@
       </c>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B492" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="C492" s="34" t="s">
+      <c r="A492" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B492" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="C492" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D492" s="6" t="s">
@@ -5925,170 +5928,170 @@
       </c>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="63" t="s">
+      <c r="A493" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B493" s="63" t="s">
+      <c r="B493" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C493" s="34"/>
+      <c r="C493" s="77"/>
       <c r="D493" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="63" t="s">
+      <c r="A494" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B494" s="63" t="s">
+      <c r="B494" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C494" s="34"/>
+      <c r="C494" s="77"/>
       <c r="D494" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="63" t="s">
+      <c r="A495" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B495" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="C495" s="34"/>
+      <c r="B495" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C495" s="77"/>
       <c r="D495" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="496" spans="1:4">
-      <c r="A496" s="63" t="s">
+      <c r="A496" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B496" s="63" t="s">
+      <c r="B496" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C496" s="34"/>
-      <c r="D496" s="34" t="s">
+      <c r="C496" s="77"/>
+      <c r="D496" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="497" spans="1:4">
-      <c r="A497" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="B497" s="63" t="s">
+      <c r="A497" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B497" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C497" s="34"/>
-      <c r="D497" s="34"/>
+      <c r="C497" s="77"/>
+      <c r="D497" s="77"/>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="63" t="s">
+      <c r="A498" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B498" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="C498" s="34"/>
-      <c r="D498" s="34"/>
+      <c r="B498" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C498" s="77"/>
+      <c r="D498" s="77"/>
     </row>
     <row r="499" spans="1:4">
-      <c r="A499" s="57" t="s">
+      <c r="A499" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B499" s="63" t="s">
+      <c r="B499" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C499" s="34"/>
-      <c r="D499" s="34"/>
+      <c r="C499" s="77"/>
+      <c r="D499" s="77"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="63" t="s">
+      <c r="A500" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B500" s="63" t="s">
+      <c r="B500" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C500" s="34"/>
+      <c r="C500" s="77"/>
       <c r="D500" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="501" spans="1:4">
-      <c r="A501" s="63" t="s">
+      <c r="A501" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B501" s="63" t="s">
+      <c r="B501" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C501" s="34"/>
+      <c r="C501" s="77"/>
       <c r="D501" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="502" spans="1:4">
-      <c r="A502" s="63" t="s">
+      <c r="A502" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B502" s="63" t="s">
+      <c r="B502" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C502" s="34"/>
-      <c r="D502" s="34" t="s">
+      <c r="C502" s="77"/>
+      <c r="D502" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="503" spans="1:4">
-      <c r="A503" s="63"/>
-      <c r="B503" s="88" t="s">
-        <v>316</v>
-      </c>
-      <c r="C503" s="34"/>
-      <c r="D503" s="34"/>
+      <c r="A503" s="34"/>
+      <c r="B503" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="C503" s="77"/>
+      <c r="D503" s="77"/>
     </row>
     <row r="504" spans="1:4">
-      <c r="A504" s="56" t="s">
+      <c r="A504" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B504" s="72" t="s">
+      <c r="B504" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C504" s="34"/>
-      <c r="D504" s="34"/>
+      <c r="C504" s="77"/>
+      <c r="D504" s="77"/>
     </row>
     <row r="505" spans="1:4">
-      <c r="A505" s="63" t="s">
+      <c r="A505" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B505" s="72" t="s">
+      <c r="B505" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C505" s="34"/>
-      <c r="D505" s="34"/>
+      <c r="C505" s="77"/>
+      <c r="D505" s="77"/>
     </row>
     <row r="506" spans="1:4">
-      <c r="A506" s="56" t="s">
+      <c r="A506" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B506" s="63" t="s">
+      <c r="B506" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C506" s="34"/>
-      <c r="D506" s="34"/>
+      <c r="C506" s="77"/>
+      <c r="D506" s="77"/>
     </row>
     <row r="513" spans="1:4" ht="15.6">
-      <c r="A513" s="96" t="s">
-        <v>320</v>
-      </c>
-      <c r="B513" s="100"/>
+      <c r="A513" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="B513" s="66"/>
       <c r="C513" s="24"/>
       <c r="D513" s="24"/>
     </row>
     <row r="514" spans="1:4">
-      <c r="A514" s="82" t="s">
+      <c r="A514" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B514" s="82" t="s">
+      <c r="B514" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C514" s="25" t="s">
@@ -6099,142 +6102,89 @@
       </c>
     </row>
     <row r="515" spans="1:4">
-      <c r="A515" s="70" t="s">
+      <c r="A515" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B515" s="70" t="s">
+      <c r="B515" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C515" s="27" t="s">
+      <c r="C515" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D515" s="27" t="s">
+      <c r="D515" s="78" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="516" spans="1:4">
-      <c r="A516" s="70" t="s">
+      <c r="A516" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B516" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C516" s="78"/>
+      <c r="D516" s="78"/>
+    </row>
+    <row r="517" spans="1:4" ht="28.8">
+      <c r="A517" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="B516" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C516" s="27"/>
-      <c r="D516" s="27"/>
-    </row>
-    <row r="517" spans="1:4" ht="28.8">
-      <c r="A517" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B517" s="70" t="s">
+      <c r="B517" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C517" s="27"/>
-      <c r="D517" s="27"/>
+      <c r="C517" s="78"/>
+      <c r="D517" s="78"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="A518" s="70" t="s">
+      <c r="A518" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B518" s="70" t="s">
+      <c r="B518" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C518" s="27"/>
-      <c r="D518" s="27"/>
+      <c r="C518" s="78"/>
+      <c r="D518" s="78"/>
     </row>
     <row r="519" spans="1:4" ht="28.8">
-      <c r="A519" s="70" t="s">
+      <c r="A519" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B519" s="70" t="s">
+      <c r="B519" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C519" s="27"/>
-      <c r="D519" s="27"/>
+      <c r="C519" s="78"/>
+      <c r="D519" s="78"/>
     </row>
     <row r="520" spans="1:4">
-      <c r="A520" s="70" t="s">
+      <c r="A520" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B520" s="70" t="s">
+      <c r="B520" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C520" s="27"/>
-      <c r="D520" s="27"/>
+      <c r="C520" s="78"/>
+      <c r="D520" s="78"/>
     </row>
     <row r="521" spans="1:4">
-      <c r="A521" s="70" t="s">
+      <c r="A521" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B521" s="70" t="s">
+      <c r="B521" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C521" s="27"/>
-      <c r="D521" s="27"/>
+      <c r="C521" s="78"/>
+      <c r="D521" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A387:A391"/>
-    <mergeCell ref="D364:D372"/>
-    <mergeCell ref="D374:D375"/>
-    <mergeCell ref="D376:D377"/>
-    <mergeCell ref="D379:D381"/>
-    <mergeCell ref="D449:D456"/>
-    <mergeCell ref="C449:C451"/>
-    <mergeCell ref="C452:C456"/>
-    <mergeCell ref="C515:C521"/>
-    <mergeCell ref="D515:D521"/>
-    <mergeCell ref="C463:C472"/>
-    <mergeCell ref="D463:D469"/>
-    <mergeCell ref="D471:D472"/>
-    <mergeCell ref="D478:D484"/>
-    <mergeCell ref="C478:C484"/>
-    <mergeCell ref="C492:C506"/>
-    <mergeCell ref="D496:D499"/>
-    <mergeCell ref="D502:D506"/>
-    <mergeCell ref="C431:C435"/>
-    <mergeCell ref="D431:D435"/>
-    <mergeCell ref="C443:C448"/>
-    <mergeCell ref="D443:D445"/>
-    <mergeCell ref="D446:D448"/>
-    <mergeCell ref="D412:D422"/>
-    <mergeCell ref="C364:C368"/>
-    <mergeCell ref="C369:C371"/>
-    <mergeCell ref="C372:C381"/>
-    <mergeCell ref="C382:C391"/>
-    <mergeCell ref="C400:C405"/>
-    <mergeCell ref="D400:D403"/>
-    <mergeCell ref="C322:C324"/>
-    <mergeCell ref="C325:C327"/>
-    <mergeCell ref="C328:C332"/>
-    <mergeCell ref="D322:D332"/>
-    <mergeCell ref="C340:C349"/>
-    <mergeCell ref="D340:D349"/>
-    <mergeCell ref="C285:C294"/>
-    <mergeCell ref="A292:A294"/>
-    <mergeCell ref="D285:D291"/>
-    <mergeCell ref="D292:D294"/>
-    <mergeCell ref="C301:C316"/>
-    <mergeCell ref="D311:D316"/>
-    <mergeCell ref="D301:D310"/>
-    <mergeCell ref="C257:C261"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="D254:D261"/>
-    <mergeCell ref="C268:C277"/>
-    <mergeCell ref="A275:A277"/>
-    <mergeCell ref="D275:D277"/>
-    <mergeCell ref="D268:D274"/>
-    <mergeCell ref="C218:C227"/>
-    <mergeCell ref="D218:D223"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="C234:C247"/>
-    <mergeCell ref="D236:D241"/>
-    <mergeCell ref="D243:D247"/>
-    <mergeCell ref="D166:D170"/>
-    <mergeCell ref="C166:C170"/>
-    <mergeCell ref="D197:D207"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="C197:C211"/>
+    <mergeCell ref="D134:D142"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="C110:C145"/>
+    <mergeCell ref="D110:D116"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="D120:D129"/>
     <mergeCell ref="D130:D131"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="D3:D10"/>
@@ -6250,19 +6200,72 @@
     <mergeCell ref="D95:D101"/>
     <mergeCell ref="D103:D104"/>
     <mergeCell ref="C79:C88"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="D166:D170"/>
+    <mergeCell ref="C166:C170"/>
+    <mergeCell ref="D197:D207"/>
+    <mergeCell ref="D208:D210"/>
+    <mergeCell ref="C197:C211"/>
+    <mergeCell ref="C176:C187"/>
+    <mergeCell ref="D176:D187"/>
+    <mergeCell ref="C218:C227"/>
+    <mergeCell ref="D218:D223"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="C234:C247"/>
+    <mergeCell ref="D236:D241"/>
+    <mergeCell ref="D243:D247"/>
+    <mergeCell ref="C257:C261"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="D254:D261"/>
+    <mergeCell ref="C268:C277"/>
+    <mergeCell ref="A275:A277"/>
+    <mergeCell ref="D275:D277"/>
+    <mergeCell ref="D268:D274"/>
+    <mergeCell ref="C285:C294"/>
+    <mergeCell ref="A292:A294"/>
+    <mergeCell ref="D285:D291"/>
+    <mergeCell ref="D292:D294"/>
+    <mergeCell ref="C301:C316"/>
+    <mergeCell ref="D311:D316"/>
+    <mergeCell ref="D301:D310"/>
+    <mergeCell ref="C322:C324"/>
+    <mergeCell ref="C325:C327"/>
+    <mergeCell ref="C328:C332"/>
+    <mergeCell ref="D322:D332"/>
+    <mergeCell ref="C340:C349"/>
+    <mergeCell ref="D340:D349"/>
+    <mergeCell ref="D412:D422"/>
+    <mergeCell ref="C364:C368"/>
+    <mergeCell ref="C369:C371"/>
+    <mergeCell ref="C372:C381"/>
+    <mergeCell ref="C382:C391"/>
+    <mergeCell ref="C400:C405"/>
+    <mergeCell ref="D400:D403"/>
     <mergeCell ref="D382:D387"/>
     <mergeCell ref="D388:D391"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="C176:C187"/>
-    <mergeCell ref="D176:D187"/>
-    <mergeCell ref="D134:D142"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="C110:C145"/>
-    <mergeCell ref="D110:D116"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="D120:D129"/>
+    <mergeCell ref="C431:C435"/>
+    <mergeCell ref="D431:D435"/>
+    <mergeCell ref="C443:C448"/>
+    <mergeCell ref="D443:D445"/>
+    <mergeCell ref="D446:D448"/>
+    <mergeCell ref="D449:D456"/>
+    <mergeCell ref="C449:C451"/>
+    <mergeCell ref="C452:C456"/>
+    <mergeCell ref="C515:C521"/>
+    <mergeCell ref="D515:D521"/>
+    <mergeCell ref="C463:C472"/>
+    <mergeCell ref="D463:D469"/>
+    <mergeCell ref="D471:D472"/>
+    <mergeCell ref="D478:D484"/>
+    <mergeCell ref="C478:C484"/>
+    <mergeCell ref="C492:C506"/>
+    <mergeCell ref="D496:D499"/>
+    <mergeCell ref="D502:D506"/>
+    <mergeCell ref="A387:A391"/>
+    <mergeCell ref="D364:D372"/>
+    <mergeCell ref="D374:D375"/>
+    <mergeCell ref="D376:D377"/>
+    <mergeCell ref="D379:D381"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
